--- a/public/question-data.xlsx
+++ b/public/question-data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A6B3C27-65F4-43DB-8BB9-9BF635922F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\test\SEAL-project\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D3E326-37E3-4CFC-B68A-B9A9AAC0E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +56,6 @@
     <t>EC1</t>
   </si>
   <si>
-    <t>Empathetic Communicator ( 관계형 )</t>
-  </si>
-  <si>
     <t>나는 다른 사람들과의 관계를 중요하게 생각한다.</t>
   </si>
   <si>
@@ -90,9 +92,6 @@
     <t>FAC1</t>
   </si>
   <si>
-    <t>Facilitator (촉진자)</t>
-  </si>
-  <si>
     <t>나는 팀의 협력을 촉진하기 위해 노력한다.</t>
   </si>
   <si>
@@ -111,9 +110,6 @@
     <t>ADV1</t>
   </si>
   <si>
-    <t>Advisor (조언자)</t>
-  </si>
-  <si>
     <t>나는 타인에게 조언을 제공하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -132,9 +128,6 @@
     <t>COO1</t>
   </si>
   <si>
-    <t>Coordinator (조정자)</t>
-  </si>
-  <si>
     <t>나는 팀의 역할을 조정하는 데 능숙하다.</t>
   </si>
   <si>
@@ -153,9 +146,6 @@
     <t>AO1</t>
   </si>
   <si>
-    <t>Action-Oriented Achiever ( 도전형 )</t>
-  </si>
-  <si>
     <t>나는 목표 달성을 위해 도전하는 것을 즐긴다.</t>
   </si>
   <si>
@@ -192,9 +182,6 @@
     <t>TRA1</t>
   </si>
   <si>
-    <t>Transformer (변혁가)</t>
-  </si>
-  <si>
     <t>나는 변화를 주도하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -213,9 +200,6 @@
     <t>INN1</t>
   </si>
   <si>
-    <t>Innovator (혁신가)</t>
-  </si>
-  <si>
     <t>나는 혁신적인 해결책을 찾는 데 능숙하다.</t>
   </si>
   <si>
@@ -231,9 +215,6 @@
     <t>나는 창의적인 문제 해결을 선호한다.</t>
   </si>
   <si>
-    <t>Adventurer (모험가)</t>
-  </si>
-  <si>
     <t>나는 모험을 즐기는 성향이 있다.</t>
   </si>
   <si>
@@ -246,9 +227,6 @@
     <t>LS1</t>
   </si>
   <si>
-    <t>Loyan Stabilizer ( 안정형 )</t>
-  </si>
-  <si>
     <t>나는 안정적이고 예측 가능한 상황을 선호한다.</t>
   </si>
   <si>
@@ -285,9 +263,6 @@
     <t>SUP1</t>
   </si>
   <si>
-    <t>Supporter (지원자)</t>
-  </si>
-  <si>
     <t>나는 다른 사람을 지원하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -306,9 +281,6 @@
     <t>GUA1</t>
   </si>
   <si>
-    <t>Guardian (수호자)</t>
-  </si>
-  <si>
     <t>나는 조직의 규범과 가치를 수호하는 것을 중요하게 생각한다.</t>
   </si>
   <si>
@@ -327,9 +299,6 @@
     <t>MED1</t>
   </si>
   <si>
-    <t>Mediator (중재자)</t>
-  </si>
-  <si>
     <t>나는 갈등 상황에서 중재하는 역할을 잘 한다.</t>
   </si>
   <si>
@@ -348,9 +317,6 @@
     <t>ST1</t>
   </si>
   <si>
-    <t>Strategic Thinker ( 분석형 )</t>
-  </si>
-  <si>
     <t>나는 문제를 분석하고 해결하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -387,9 +353,6 @@
     <t>CRI1</t>
   </si>
   <si>
-    <t>Critic (비평가)</t>
-  </si>
-  <si>
     <t>나는 문제를 비평적으로 분석하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -408,9 +371,6 @@
     <t>STR1</t>
   </si>
   <si>
-    <t>Strategist (전략가)</t>
-  </si>
-  <si>
     <t>나는 장기적인 전략을 세우는 것을 좋아한다.</t>
   </si>
   <si>
@@ -429,9 +389,6 @@
     <t>ANA1</t>
   </si>
   <si>
-    <t>Analyst (분석자)</t>
-  </si>
-  <si>
     <t>나는 데이터를 분석하는 것을 좋아한다.</t>
   </si>
   <si>
@@ -445,13 +402,77 @@
   </si>
   <si>
     <t>나는 데이터를 통해 문제를 해결하는 데 능숙하다.</t>
+  </si>
+  <si>
+    <t>Facilitator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coordinator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innovator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventurer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analyst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empathetic Communicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action-Oriented Achiever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loyan Stabilizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategic Thinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,58 +481,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -519,54 +504,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -903,18 +846,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="53.5" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,955 +875,956 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="E30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="E38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
         <v>87</v>
       </c>
-      <c r="E39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
         <v>89</v>
       </c>
-      <c r="E40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="E42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="E43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="E44">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
       </c>
-      <c r="E45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
         <v>103</v>
       </c>
-      <c r="E46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>110</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
         <v>119</v>
       </c>
-      <c r="E53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
         <v>121</v>
       </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="E61">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/question-data.xlsx
+++ b/public/question-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\test\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA2590-52A5-4184-9C46-2795417E0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4C439-4FCC-4941-8780-26C1B8149C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>keyId</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>isPositive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1400,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -1408,7 +1420,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
@@ -1428,7 +1440,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>

--- a/public/question-data.xlsx
+++ b/public/question-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\test\SEAL-project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4C439-4FCC-4941-8780-26C1B8149C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9617AD-90C4-43CD-BF66-246E1E86F39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
